--- a/jacobi/src/test/resources/jacobi/test/data/BasisDftTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/BasisDftTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24765" windowHeight="9870" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24765" windowHeight="9870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Complex DFT 7" sheetId="1" r:id="rId1"/>
@@ -1180,7 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -1476,7 +1476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -2192,1981 +2192,1981 @@
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1">
         <f ca="1">RAND()*256-128</f>
-        <v>4.9505762261479163</v>
+        <v>101.32755890230825</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:P16" ca="1" si="0">RAND()*256-128</f>
-        <v>-112.59821558888279</v>
+        <v>-80.476343764087488</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>35.282500853842947</v>
+        <v>-65.101868083972164</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>102.09411638531768</v>
+        <v>-125.40200043810873</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>22.30522500569441</v>
+        <v>-21.494504785505313</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>36.622155003809894</v>
+        <v>97.532437194600902</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>108.36558660027899</v>
+        <v>19.031596139540795</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>98.899274976615146</v>
+        <v>89.972461972226398</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>-95.234662259558291</v>
+        <v>-85.269571985642841</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>-55.280842209003822</v>
+        <v>82.923367464629109</v>
       </c>
       <c r="K1">
         <f t="shared" ca="1" si="0"/>
-        <v>-8.4123569362441799</v>
+        <v>-50.844988403040333</v>
       </c>
       <c r="L1">
         <f t="shared" ca="1" si="0"/>
-        <v>120.23861747128413</v>
+        <v>71.426935366353888</v>
       </c>
       <c r="M1">
         <f t="shared" ca="1" si="0"/>
-        <v>-124.49138666011885</v>
+        <v>-84.842014281023495</v>
       </c>
       <c r="N1">
         <f t="shared" ca="1" si="0"/>
-        <v>-53.91212161712221</v>
+        <v>83.953952940468611</v>
       </c>
       <c r="O1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.042584337492741</v>
+        <v>8.4456500766924307</v>
       </c>
       <c r="P1">
         <f t="shared" ca="1" si="0"/>
-        <v>46.520928808838249</v>
+        <v>122.30738499516005</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <f t="shared" ref="A2:P30" ca="1" si="1">RAND()*256-128</f>
-        <v>-111.34582411373543</v>
+        <v>88.557217318644064</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>76.947422452158804</v>
+        <v>107.82240939706486</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>64.760864576033327</v>
+        <v>90.706855191051289</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>104.52649227116328</v>
+        <v>67.418492053577381</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-119.39123056282</v>
+        <v>44.20163889371122</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-54.477336209775075</v>
+        <v>110.57566505086766</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>112.15642739811634</v>
+        <v>34.694083471756215</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.875243619057358</v>
+        <v>97.301309599122959</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>-60.614512360407872</v>
+        <v>-71.607100850706274</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>-61.517748474588188</v>
+        <v>91.461735486874659</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>49.616376940578249</v>
+        <v>-26.230796589666483</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.0752641253618833</v>
+        <v>-127.21912519990127</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>-80.084189739083826</v>
+        <v>-104.00183524032653</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>-121.13389626467892</v>
+        <v>-100.90926858116703</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.741274242065032</v>
+        <v>-7.2992935578412812</v>
       </c>
       <c r="P2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.091389025739403</v>
+        <v>38.193251401525146</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>40.43938532489085</v>
+        <v>-46.163921989923352</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54104688015056013</v>
+        <v>119.71687046025849</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>124.54277674436446</v>
+        <v>20.743309605289369</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>92.31689676723164</v>
+        <v>-120.4354306706343</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-122.12725436943234</v>
+        <v>45.695317658589516</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>38.304787735457552</v>
+        <v>61.012444163907446</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7794309474659258</v>
+        <v>22.102873900062406</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>42.522650500969036</v>
+        <v>47.800288572356379</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>19.170950651891445</v>
+        <v>127.2847789741549</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>-82.781512210047453</v>
+        <v>-112.5850403002047</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>76.130491057083816</v>
+        <v>13.509585674082132</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>75.784813236955159</v>
+        <v>80.018805317160883</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>114.22979475348981</v>
+        <v>26.419192394824506</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>-110.72265066435614</v>
+        <v>1.5642207600313327</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="0"/>
-        <v>87.548168123035765</v>
+        <v>-40.750499031485845</v>
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="0"/>
-        <v>-94.131850028717906</v>
+        <v>-124.55284610180027</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.5993130597447873</v>
+        <v>-43.811635698522167</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>42.348557959878178</v>
+        <v>40.150511309161601</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>96.032087200619856</v>
+        <v>-14.493218788701625</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-105.85812074885513</v>
+        <v>-84.900891637679138</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-44.408586092159368</v>
+        <v>-15.784164323085861</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>29.544536143113163</v>
+        <v>2.7157378611558158</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>79.185572026471704</v>
+        <v>-83.311519969294437</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-70.348056828254727</v>
+        <v>-18.242859522264325</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>95.70696225281813</v>
+        <v>54.912048562667167</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>-79.814492323247691</v>
+        <v>-86.40007818117212</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>-50.500695317351273</v>
+        <v>-18.031975348177241</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>-80.821713892687626</v>
+        <v>-10.424053870801117</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>-89.73021889901085</v>
+        <v>-126.79340358418418</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>110.54899249588397</v>
+        <v>-60.180981468124429</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>29.603456395294586</v>
+        <v>82.278439040423621</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="0"/>
-        <v>65.405894288115547</v>
+        <v>-96.046284730106322</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>68.129194841275478</v>
+        <v>105.8201838948516</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.556125183821166</v>
+        <v>-119.51162572777258</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>63.847153781005744</v>
+        <v>117.15059474421747</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>52.665525042532579</v>
+        <v>108.98188901349275</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-28.17953805135835</v>
+        <v>-60.490376491822417</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>82.552185403312791</v>
+        <v>47.419276544589252</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.8291751369020517</v>
+        <v>46.617791196717633</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-28.507529232960763</v>
+        <v>88.247968850124295</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>101.82206213850674</v>
+        <v>113.26276835792254</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>-49.852846983844586</v>
+        <v>-13.224083650232529</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>13.977113600186328</v>
+        <v>90.717726359271097</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>87.051454989766057</v>
+        <v>88.60346224102949</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>33.928923356405534</v>
+        <v>-83.906071164584489</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>-102.51617738117895</v>
+        <v>89.715628832551204</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
-        <v>-75.713222366891131</v>
+        <v>-58.860708351427064</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="0"/>
-        <v>-14.152005866046693</v>
+        <v>64.53871703223686</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>58.070595130460191</v>
+        <v>-80.35596653165112</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>16.614348931500018</v>
+        <v>81.028049293206976</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-65.265540002210628</v>
+        <v>82.945429372315772</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-36.492798049140418</v>
+        <v>98.775519977007775</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>67.484006388395812</v>
+        <v>-72.389534980666895</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>78.630365022572448</v>
+        <v>-40.717145932653182</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>105.44594342836325</v>
+        <v>-96.421975603165407</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>120.4028063079937</v>
+        <v>-50.820469369012017</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>-123.9415723227815</v>
+        <v>86.034819951960486</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>-68.82131926536951</v>
+        <v>-92.2789806631734</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>-38.613940782864574</v>
+        <v>-5.1774460294420805</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>64.564732983081427</v>
+        <v>-60.570696322183551</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2354220057831071</v>
+        <v>-32.820032705807762</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
-        <v>-107.09140364424889</v>
+        <v>92.586737186904145</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>-53.43728191671039</v>
+        <v>68.804789295919676</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="0"/>
-        <v>38.493469231618747</v>
+        <v>17.378331492236157</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>25.544406336290052</v>
+        <v>-27.639731294786714</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-114.44698938923551</v>
+        <v>114.74142040534795</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.3273664461840724</v>
+        <v>54.648291842823369</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>13.05889206165736</v>
+        <v>-69.01214113555946</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>75.535173325553671</v>
+        <v>98.024824664300553</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>49.781335967822287</v>
+        <v>123.72822380951851</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>126.67071734490767</v>
+        <v>-122.77852701266332</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-39.960895137566524</v>
+        <v>76.677687520139472</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>47.212671828083415</v>
+        <v>-25.618407629078746</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.024203838670388</v>
+        <v>4.1417091376131623</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>116.62935192210136</v>
+        <v>84.391749362268627</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.8018339196814566</v>
+        <v>6.4506235719801452</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>60.57447624593118</v>
+        <v>51.35420604682588</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1246063378191309</v>
+        <v>-123.10084430519595</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>14.843876179057617</v>
+        <v>-126.59560528405464</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="0"/>
-        <v>-68.7711874633398</v>
+        <v>21.877730119949206</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>-127.61410678034119</v>
+        <v>-121.92592970961491</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>109.66286572040994</v>
+        <v>-59.178329662436852</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>102.51087395341636</v>
+        <v>8.3410168536592266</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>117.99093777472433</v>
+        <v>21.960724984722958</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>-52.963443546682754</v>
+        <v>-43.976199666189501</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.7717963249667434</v>
+        <v>-14.064777288310182</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>73.553957247807062</v>
+        <v>41.702062832525968</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.4056404320202205</v>
+        <v>-13.372148935201693</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>55.265317113382878</v>
+        <v>99.685778788419242</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>120.93171256804345</v>
+        <v>36.775067918497939</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>47.318981401104793</v>
+        <v>-3.50706986765951</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>-58.625336310129143</v>
+        <v>30.059444781018925</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>-109.5649379502442</v>
+        <v>0.36666906272827759</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>-56.155590467756639</v>
+        <v>12.747170775458329</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>-77.972236183638586</v>
+        <v>-65.478538643159879</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="0"/>
-        <v>33.741979948044957</v>
+        <v>-56.089298359331337</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>33.191290954379838</v>
+        <v>87.799468738960229</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.468094869147734</v>
+        <v>-80.038225098125679</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>121.28381237220941</v>
+        <v>-49.399624162159995</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-63.636755214749542</v>
+        <v>-91.16659925833298</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-34.243409713573612</v>
+        <v>-66.63524525418714</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.61957708080979</v>
+        <v>-111.81717342717377</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>105.70248266263948</v>
+        <v>3.9917200490414757</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>61.56154713374562</v>
+        <v>49.070074064080615</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-40.958433091271587</v>
+        <v>101.56931601354165</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>54.323954754872233</v>
+        <v>-97.134214483652357</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>56.311305496983607</v>
+        <v>-42.854375036804242</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9702746835994844</v>
+        <v>98.337380333356663</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>-121.25723482506757</v>
+        <v>6.2619991469084653</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>-78.357004719962333</v>
+        <v>61.760432601364471</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
-        <v>-60.405884591110009</v>
+        <v>-69.170509344598628</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="0"/>
-        <v>42.527443871613315</v>
+        <v>-36.974616984241294</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>-38.285353826180113</v>
+        <v>65.297735322760076</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.257810907234614</v>
+        <v>17.05889718553982</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-105.65250880063695</v>
+        <v>123.32406504330677</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>122.18349794770285</v>
+        <v>118.7651254421823</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-41.169095839814105</v>
+        <v>-22.307450604075825</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.859048241090591</v>
+        <v>99.195773301088565</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>85.359271306147633</v>
+        <v>-103.35766921575723</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-34.95018616699565</v>
+        <v>-74.806647599056248</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>-51.684429335078931</v>
+        <v>26.940569164942701</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>52.835489090123588</v>
+        <v>36.54965334000147</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>-95.455911982496247</v>
+        <v>14.687966585827922</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>-123.19000611685507</v>
+        <v>-55.431501785597703</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>-34.236099298394151</v>
+        <v>-95.076992042128495</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
-        <v>-118.92822318151747</v>
+        <v>-98.209946626140322</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
-        <v>-34.622976274806177</v>
+        <v>-8.7384138913715219</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4362650864847524</v>
+        <v>70.18088859175117</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>113.01243173286954</v>
+        <v>-64.027745949973678</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>116.42957841445141</v>
+        <v>-65.845740934279064</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-49.989283599042295</v>
+        <v>-79.879558091348201</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>-39.737480013927581</v>
+        <v>-68.329190731868692</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-56.076696115858994</v>
+        <v>-44.034055582292638</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>16.959475878312531</v>
+        <v>-11.455835813094467</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-37.651411114405192</v>
+        <v>-30.256454736289527</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>72.085364919792084</v>
+        <v>1.9235727681743526</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>-119.794305547351</v>
+        <v>-93.119109607461922</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>34.746508385672229</v>
+        <v>-49.378461089323878</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>-98.103593932062353</v>
+        <v>-33.681185686041772</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.5820511823963557</v>
+        <v>-52.751172766241638</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>-106.91933764204586</v>
+        <v>11.775990837260196</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="0"/>
-        <v>-48.89271640669088</v>
+        <v>-3.017276695440529</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="0"/>
-        <v>22.140471786128359</v>
+        <v>-12.601217792379231</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="0"/>
-        <v>44.622352223694378</v>
+        <v>35.896811125200088</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-69.996673839380946</v>
+        <v>67.536806004056814</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.1415622146915609</v>
+        <v>22.264259548744036</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8697511671593077</v>
+        <v>-97.387372255626161</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>90.437561742930654</v>
+        <v>17.595412549624115</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>118.13301707131964</v>
+        <v>-88.004685745023323</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>99.04450548783953</v>
+        <v>65.197718612381692</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>-70.944034983312832</v>
+        <v>-93.105011330692093</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-94.592787955232041</v>
+        <v>1.5808991080970429</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>73.352480013264227</v>
+        <v>-83.084965660179364</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>-112.20285081284166</v>
+        <v>-22.594746647414581</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>48.038906464752728</v>
+        <v>0.18091657879065792</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9534888477806192</v>
+        <v>61.430310125839839</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>17.255739720603174</v>
+        <v>122.13371766559203</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="0"/>
-        <v>-113.76735278832496</v>
+        <v>-24.809530223682856</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="0"/>
-        <v>-69.855302926509239</v>
+        <v>127.19634654228</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="0"/>
-        <v>-49.139814146989238</v>
+        <v>-118.61057159471125</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>123.70856728615362</v>
+        <v>-26.082123193207735</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>-65.437736072080838</v>
+        <v>-125.61906442884825</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-103.47883336882214</v>
+        <v>47.249556261487754</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>-54.394025096170907</v>
+        <v>-40.695804185180577</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-57.971446650060869</v>
+        <v>-54.295601803791016</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-72.731305926215583</v>
+        <v>32.125846492969657</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>-26.65584717549288</v>
+        <v>-48.270305242364401</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-113.33279358851055</v>
+        <v>-94.819932289739114</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>67.892515426739777</v>
+        <v>-120.74327456416231</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>38.168118179191879</v>
+        <v>-50.203419825063861</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>-114.2250728230859</v>
+        <v>-18.257512396220989</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>77.955712438248327</v>
+        <v>69.903357266846683</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
-        <v>-107.64308319507029</v>
+        <v>-62.860778564292417</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="0"/>
-        <v>117.06262273174153</v>
+        <v>-24.226337116789693</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="0"/>
-        <v>113.48966836202069</v>
+        <v>95.263425002320872</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="0"/>
-        <v>38.248249250343775</v>
+        <v>-64.415213022337895</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>99.040506200031473</v>
+        <v>-95.560340313563358</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>105.73236414216387</v>
+        <v>-122.61720153733125</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.289421795287581</v>
+        <v>11.302611195098621</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-96.551036686649013</v>
+        <v>2.9406428189431324</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>122.58043596902195</v>
+        <v>-21.410495149893933</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>50.700606232820633</v>
+        <v>-51.49054066064221</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>107.92889582061434</v>
+        <v>-109.4614358702116</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>20.846767879619733</v>
+        <v>-6.1276078453801688</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>75.177127003977319</v>
+        <v>83.102075487172925</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.030982694739635</v>
+        <v>104.65483354649993</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>64.62278161649229</v>
+        <v>-55.334262114165085</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="0"/>
-        <v>53.339389441169004</v>
+        <v>101.12513842282118</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="0"/>
-        <v>-31.124375427949815</v>
+        <v>-32.934100991888982</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="0"/>
-        <v>-36.388016801997367</v>
+        <v>40.363835192828986</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="0"/>
-        <v>113.15916022633172</v>
+        <v>110.62806971004542</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.674525669788636</v>
+        <v>55.237187842475748</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-87.943049213023841</v>
+        <v>78.03989635100848</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>119.70764164208663</v>
+        <v>-96.447953276961442</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-21.635958724945709</v>
+        <v>1.103422077608343</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>75.292992235898879</v>
+        <v>-120.51111920483331</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>43.692254807916186</v>
+        <v>-21.932195643220354</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>104.69970630399328</v>
+        <v>21.150836996511998</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>82.914825335825213</v>
+        <v>110.85826458740647</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-41.021072665940295</v>
+        <v>-9.7893932588944494</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>102.27238409886201</v>
+        <v>-100.44161536467985</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>38.816053740221292</v>
+        <v>-1.2716861587452684</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>117.15639073867476</v>
+        <v>-89.588974248790549</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.676642823892507</v>
+        <v>-82.19587499177095</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="0"/>
-        <v>-22.098181931790236</v>
+        <v>125.64010956619131</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="0"/>
-        <v>124.96424240753902</v>
+        <v>-58.319851440257111</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="0"/>
-        <v>-65.373418495551448</v>
+        <v>58.414743110703711</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="0"/>
-        <v>-100.4900007935268</v>
+        <v>-126.75235449759344</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-28.027715037275158</v>
+        <v>-96.798161176757844</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.9378687899059344</v>
+        <v>103.09901845599316</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>103.99588209125164</v>
+        <v>-63.801960417202565</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-125.22652919823341</v>
+        <v>97.152799235631335</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-88.725225868800038</v>
+        <v>64.684260866986108</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8465340913891737</v>
+        <v>-60.006636732423175</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>54.534793153868975</v>
+        <v>-82.276008135665364</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4267368902042961</v>
+        <v>6.7329616830997736</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>81.558243124791659</v>
+        <v>-61.020879869581051</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>-101.54293936916076</v>
+        <v>-24.055961419404753</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>-91.599722827224809</v>
+        <v>-103.8802377329653</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="0"/>
-        <v>-63.204738307967943</v>
+        <v>94.178740930523958</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="0"/>
-        <v>56.604930123090298</v>
+        <v>-93.388540492667744</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="0"/>
-        <v>119.49477696483524</v>
+        <v>-8.3724988160904275</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="0"/>
-        <v>15.706532868975415</v>
+        <v>119.54145371864308</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="0"/>
-        <v>-10.194129922630225</v>
+        <v>22.304791466757138</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.209693976155194</v>
+        <v>78.550562729593821</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>118.25080050643132</v>
+        <v>-12.611886414736091</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>-89.077047293543188</v>
+        <v>-54.535405307360634</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>-116.08937495420207</v>
+        <v>-30.459875899421661</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>96.673791530254135</v>
+        <v>61.941148823897009</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>106.49088684973464</v>
+        <v>-87.364258280174653</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>81.873367125499726</v>
+        <v>-78.607441733354108</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>32.604085489998482</v>
+        <v>-83.021616293421829</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.7234465709067308E-2</v>
+        <v>-2.8303335625240607</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.850004131493165</v>
+        <v>-97.631812849913729</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>-28.22728532996274</v>
+        <v>102.05537840619593</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="1"/>
-        <v>-25.407572908606966</v>
+        <v>72.566692274942938</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.558167893848548</v>
+        <v>94.656358324888231</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="1"/>
-        <v>-69.515011550374453</v>
+        <v>113.91306073522074</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="1"/>
-        <v>-88.721226402990027</v>
+        <v>2.6501868620295284</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.111559647962764</v>
+        <v>2.133181103870271</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>14.425896907891683</v>
+        <v>5.6277615423697682</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>-78.18711794413943</v>
+        <v>-69.404120160974031</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>19.791859341436492</v>
+        <v>116.97302057426216</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.255431783516201</v>
+        <v>98.434021291702209</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>17.488503234162607</v>
+        <v>-62.046949679096201</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>-89.684020790759234</v>
+        <v>-73.213223909426944</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-65.474778761732153</v>
+        <v>-18.788242709642901</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>27.261327484074116</v>
+        <v>89.685033702546747</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>125.43596332572037</v>
+        <v>-88.454168652532871</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>26.336461343382666</v>
+        <v>-3.6433814844706092</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>107.44458528047926</v>
+        <v>109.12931545733588</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="1"/>
-        <v>-63.17695317172425</v>
+        <v>-86.505135321280051</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="1"/>
-        <v>-78.922873492236732</v>
+        <v>36.152807977487726</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="1"/>
-        <v>-33.055523409006753</v>
+        <v>118.29355440384677</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="1"/>
-        <v>39.093782681310046</v>
+        <v>-124.59202566417051</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="1"/>
-        <v>-109.71378446556918</v>
+        <v>-26.229131226966786</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>112.74824941379438</v>
+        <v>-10.734500347100692</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>65.532867086861188</v>
+        <v>-55.46328660455535</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-57.372921644096436</v>
+        <v>17.600464366129899</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>-123.24176267521372</v>
+        <v>-90.688034323705125</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>23.469172233814476</v>
+        <v>10.612273165532315</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-84.844204800886843</v>
+        <v>73.623608075905111</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>-99.643362284377105</v>
+        <v>-49.470305392554877</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>-49.356211339839149</v>
+        <v>30.173818554161045</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>-70.931139812093647</v>
+        <v>24.754719919346229</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>-62.748161173161179</v>
+        <v>87.618114055065405</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>-84.46578141985492</v>
+        <v>-110.93372997814555</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="1"/>
-        <v>-104.46159106817453</v>
+        <v>68.719997468850607</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.342124750302844</v>
+        <v>30.106302739803084</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="1"/>
-        <v>-74.339429386943436</v>
+        <v>51.197168148245652</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="1"/>
-        <v>90.873286338210363</v>
+        <v>3.5420474583299892</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="1"/>
-        <v>95.694054895789606</v>
+        <v>107.26792583313161</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>41.306694225342625</v>
+        <v>-74.747202335056272</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4706073281069791</v>
+        <v>102.85385875027734</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>-114.22538975776658</v>
+        <v>-80.858145645623125</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>-26.377315959569984</v>
+        <v>-56.562055827779261</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>65.187051287226979</v>
+        <v>-56.11612599798525</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>-50.927538975591148</v>
+        <v>-51.467832247309047</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>93.773950243509859</v>
+        <v>-12.605666200658192</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>105.96694049230769</v>
+        <v>-86.254682408453533</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>39.247480869136609</v>
+        <v>116.00919776382582</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>-79.360252620217011</v>
+        <v>7.5030962195540383</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>126.66154755793943</v>
+        <v>-56.946845701056617</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="1"/>
-        <v>46.290235980799764</v>
+        <v>-17.788927282779213</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.902550450023</v>
+        <v>-112.90644601097966</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="1"/>
-        <v>-80.21174858574858</v>
+        <v>-42.541422016090053</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66489668281337799</v>
+        <v>-88.04455260808794</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="1"/>
-        <v>80.245312461913045</v>
+        <v>55.535462759138738</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>99.150507045844137</v>
+        <v>32.207417958765319</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>109.87939559784539</v>
+        <v>62.450459913161637</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4759836409453442</v>
+        <v>2.8085885069858136</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>30.305813097690276</v>
+        <v>87.596695644259228</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>102.62208973036067</v>
+        <v>-31.310338524585632</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>-32.631160442158972</v>
+        <v>85.714729794666738</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>35.648547992392963</v>
+        <v>-112.66669461640811</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95808391312354502</v>
+        <v>-43.9593411104903</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>26.321662108523071</v>
+        <v>110.43324973076423</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>79.538360597511911</v>
+        <v>105.1067623635368</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5842605355420289</v>
+        <v>-65.105078367970322</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="1"/>
-        <v>-99.665768947290076</v>
+        <v>32.461730527681794</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="1"/>
-        <v>-76.886893050380138</v>
+        <v>-30.019904026811474</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="1"/>
-        <v>-72.669420499980248</v>
+        <v>-57.730120717557583</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="1"/>
-        <v>-58.453263269399116</v>
+        <v>-48.781928826499296</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4439787964578272</v>
+        <v>79.873934160604961</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>36.582447032544536</v>
+        <v>63.600768816221489</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>85.616773351697447</v>
+        <v>-21.797827392683502</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>115.85347729838398</v>
+        <v>-41.738214173323598</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>99.285997472799409</v>
+        <v>106.26347235197724</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>28.530383998637944</v>
+        <v>-77.324759116100779</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>46.908951244687273</v>
+        <v>122.13008575063265</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.2342821933303867</v>
+        <v>-43.400853972501693</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.74989494999474</v>
+        <v>6.8975102059503115</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>107.54089534714211</v>
+        <v>-116.02677534046782</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>-43.565888544963968</v>
+        <v>21.573319775947738</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>-80.852223525974779</v>
+        <v>101.74070649645427</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="1"/>
-        <v>-52.186394735468951</v>
+        <v>-92.917042065855981</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4576557135564485</v>
+        <v>-40.56297267017311</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="1"/>
-        <v>-119.48448085793046</v>
+        <v>-25.388778077772315</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="1"/>
-        <v>112.9245250649949</v>
+        <v>123.64639178586904</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="1"/>
-        <v>-97.967985467657172</v>
+        <v>103.99132246979781</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>35.157265846512786</v>
+        <v>62.654056122374897</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>-27.744105531014043</v>
+        <v>97.483497350354213</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>-46.407700100217454</v>
+        <v>62.049231346579688</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>-103.88460896571209</v>
+        <v>126.78134739110766</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>107.66628523158624</v>
+        <v>-51.016319301851439</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>46.401341836990269</v>
+        <v>-26.905408593813434</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>-77.650476542370683</v>
+        <v>28.116115079317865</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.599301878776458</v>
+        <v>96.515928213416828</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>93.160611871606505</v>
+        <v>10.615008588383915</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>-105.24622414163937</v>
+        <v>-66.888089952454493</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
-        <v>-59.650554155762904</v>
+        <v>81.630067589055557</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="1"/>
-        <v>53.028851274643841</v>
+        <v>-11.306119906845566</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="1"/>
-        <v>-124.04820211948137</v>
+        <v>56.887119387092127</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="1"/>
-        <v>-75.846542179073282</v>
+        <v>-75.252339943935709</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="1"/>
-        <v>-99.380479747040539</v>
+        <v>88.151335739200192</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="1"/>
-        <v>-73.225575929950651</v>
+        <v>85.868138026410833</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.3312232637205739</v>
+        <v>22.065692051943728</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.5317947626717512</v>
+        <v>-28.513122531110781</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>82.103109859020606</v>
+        <v>-106.51641036015835</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.2590697283242775</v>
+        <v>-9.7980848829818683</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>121.9371425533397</v>
+        <v>71.534363189122558</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>-125.18296457986398</v>
+        <v>-16.535296931114942</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.0874428099699</v>
+        <v>-71.918660599632346</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>65.893673097474988</v>
+        <v>6.9379490694392416</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>-62.278638740996968</v>
+        <v>38.994020804064661</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>125.36927381992982</v>
+        <v>91.444066890692568</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
-        <v>-52.197159728001139</v>
+        <v>37.644944431772359</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="1"/>
-        <v>-57.846816081750347</v>
+        <v>64.984889051988688</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.1557541880447104</v>
+        <v>114.36397933724308</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="1"/>
-        <v>-67.08158238078957</v>
+        <v>103.7612334948177</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="1"/>
-        <v>127.50950875156454</v>
+        <v>-26.11318818285207</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="1"/>
-        <v>-76.499964529922408</v>
+        <v>105.78631740677733</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>105.30165189969887</v>
+        <v>66.623892134813815</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>-67.981892786901767</v>
+        <v>-74.768378701137465</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>-124.97496343603555</v>
+        <v>117.39179998515547</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>66.909870319069171</v>
+        <v>27.781463093647972</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>-123.08560519804581</v>
+        <v>-91.781191771262826</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>33.780829226045256</v>
+        <v>-107.65588225327795</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>92.348457303701025</v>
+        <v>11.064046356185827</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.901570589838258</v>
+        <v>-50.812291514038805</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>-116.89819311178113</v>
+        <v>8.3544611870139249</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>-45.42604636399372</v>
+        <v>82.29984505410431</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
-        <v>113.06322827650919</v>
+        <v>28.41053559949998</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="1"/>
-        <v>-39.343102902670125</v>
+        <v>109.40373288069031</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="1"/>
-        <v>35.979728533461554</v>
+        <v>19.773323812828977</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="1"/>
-        <v>23.421099770633589</v>
+        <v>10.994599903583293</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="1"/>
-        <v>100.85386603642334</v>
+        <v>70.434360073946124</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="1"/>
-        <v>119.84647222695097</v>
+        <v>51.424243268031319</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>-68.437199501190804</v>
+        <v>-104.04656098481715</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>20.45999372729176</v>
+        <v>126.71567941266755</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>-74.172655053300389</v>
+        <v>-88.939622063490987</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>29.822641900861328</v>
+        <v>-117.19971823378839</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>74.768351486074295</v>
+        <v>-5.6847129172732309</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>-35.0095619957346</v>
+        <v>-104.50169127125227</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>-79.82714422530978</v>
+        <v>39.98281847959683</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>37.706597901491051</v>
+        <v>8.2779785723254236</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.2441217655482433</v>
+        <v>-95.196174883986004</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="1"/>
-        <v>-22.898334300372937</v>
+        <v>55.355971787433816</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="1"/>
-        <v>57.70633191111142</v>
+        <v>78.874865087602558</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="1"/>
-        <v>26.51924822685254</v>
+        <v>73.348239521885745</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="1"/>
-        <v>46.361123399634465</v>
+        <v>-53.263103077068223</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="1"/>
-        <v>-103.91982727990032</v>
+        <v>-88.945411793927747</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="1"/>
-        <v>-84.660062361030384</v>
+        <v>107.98368129352596</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="1"/>
-        <v>119.07146155996864</v>
+        <v>-109.80261491822347</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>-127.00974678529604</v>
+        <v>-109.04161959276121</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>71.69406408815496</v>
+        <v>83.649270343735083</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>-97.945333042241202</v>
+        <v>107.409100572461</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>50.36566263788211</v>
+        <v>-31.821416996497817</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>-54.584800993352985</v>
+        <v>-109.58857246667077</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>93.698972229100292</v>
+        <v>37.959798284896152</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>59.631596858094809</v>
+        <v>-35.854974311582254</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>14.625889217894951</v>
+        <v>-17.611220134341949</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="1"/>
-        <v>25.541557956143663</v>
+        <v>-56.313316444694721</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.7404134713551116</v>
+        <v>48.169833658591841</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="1"/>
-        <v>23.301339076499346</v>
+        <v>-55.922733472966684</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="1"/>
-        <v>-72.843591108070939</v>
+        <v>-37.844058786154932</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="1"/>
-        <v>21.012700313691056</v>
+        <v>38.773755036886399</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="1"/>
-        <v>-105.17500921341576</v>
+        <v>99.567872877031959</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="1"/>
-        <v>-61.953392617207072</v>
+        <v>93.295987120052473</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="1"/>
-        <v>-116.85025916319219</v>
+        <v>95.398761869438488</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>-56.734028351822275</v>
+        <v>114.82229301973209</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>-107.62718047990467</v>
+        <v>-115.82425255206698</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>50.254642649170904</v>
+        <v>-4.0260318774875543</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>66.672126612492008</v>
+        <v>54.377967646018561</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>-116.76819539644984</v>
+        <v>-12.407062432330036</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>84.303143032053157</v>
+        <v>4.6476870079695232</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>-79.90525757840868</v>
+        <v>-34.016828813005873</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.47611845983280432</v>
+        <v>-114.70243895249266</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="1"/>
-        <v>115.01902777592662</v>
+        <v>-71.124047551629644</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="1"/>
-        <v>17.265577144811317</v>
+        <v>-115.51081779149544</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="1"/>
-        <v>19.541474236880561</v>
+        <v>63.955733303853293</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="1"/>
-        <v>-87.061791715153049</v>
+        <v>68.361719386478114</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="1"/>
-        <v>22.245947093892283</v>
+        <v>-31.490917413369459</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="1"/>
-        <v>-120.80334887695659</v>
+        <v>15.875658126623534</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="1"/>
-        <v>13.156396326652128</v>
+        <v>70.336099959268211</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="1"/>
-        <v>-86.887635272899956</v>
+        <v>-93.531432048488199</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6865787082926715</v>
+        <v>-65.316838962333065</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>110.95366321729526</v>
+        <v>82.866288801494051</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>-23.859560773541688</v>
+        <v>-86.187840650729925</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>32.925466063893197</v>
+        <v>-118.83757937656435</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>31.551477077266128</v>
+        <v>-105.1402520392289</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>51.454107527118254</v>
+        <v>-29.861631392865519</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>-21.985968789140429</v>
+        <v>111.7564640941782</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>97.609650243631961</v>
+        <v>97.095281651539153</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="1"/>
-        <v>-112.2574392429899</v>
+        <v>-11.938125625540636</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="1"/>
-        <v>-95.114487641076096</v>
+        <v>-105.96670784695368</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="1"/>
-        <v>-45.197178707252874</v>
+        <v>-31.271245681668404</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="1"/>
-        <v>-40.454356529540433</v>
+        <v>-49.48275545132725</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="1"/>
-        <v>105.54961350641611</v>
+        <v>-26.532754778322271</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.401269744966328</v>
+        <v>-87.146380270678151</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="1"/>
-        <v>23.052026136360496</v>
+        <v>23.951457398164536</v>
       </c>
       <c r="P29">
         <f t="shared" ca="1" si="1"/>
-        <v>32.147696821263821</v>
+        <v>-8.3087619130328676</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>-63.70215452577321</v>
+        <v>41.50953660712031</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>-61.919728162228182</v>
+        <v>-42.079351710363483</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>104.13019431038876</v>
+        <v>-49.608832891644596</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>-70.717744327807907</v>
+        <v>44.581013669899477</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>-117.0592093723738</v>
+        <v>35.092949972240433</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>-53.206157541139532</v>
+        <v>-73.889329510042643</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>92.900348822686908</v>
+        <v>56.12775412704255</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>-31.693561984978146</v>
+        <v>-42.862000785593949</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="1"/>
-        <v>-37.273734947596239</v>
+        <v>25.921933572695224</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="1"/>
-        <v>70.594174807172436</v>
+        <v>-125.79123164400426</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="1"/>
-        <v>90.790167562370499</v>
+        <v>70.694870937230462</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="1"/>
-        <v>-97.22360141564036</v>
+        <v>-27.880404419953237</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="1"/>
-        <v>115.56255184387649</v>
+        <v>-97.301491510043547</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="1"/>
-        <v>-56.32832686171227</v>
+        <v>102.9281250995532</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="1"/>
-        <v>29.371888465710413</v>
+        <v>127.53196997975903</v>
       </c>
       <c r="P30">
         <f t="shared" ca="1" si="1"/>
-        <v>51.490751177474294</v>
+        <v>-38.917116654363326</v>
       </c>
     </row>
   </sheetData>
